--- a/biology/Zoologie/Colombine_plumifère/Colombine_plumifère.xlsx
+++ b/biology/Zoologie/Colombine_plumifère/Colombine_plumifère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geophaps plumifera
 La Colombine plumifère (Geophaps plumifera) est une espèce de pigeon endémique d'Australie
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Geophaps plumifera plumifera
 Geophaps plumifera mungi
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle ressemble beaucoup à l'autre espèce de pigeon à huppe d'Australie, la colombine longup qui est simplement un peu plus grande.
 Elle mesure 20 à 24 cm de long avec un plumage couleur rouille qui lui permet de se confondre avec les sols des régions désertiques. Elle a une tache rouge autour de l'œil avec des taches grises et noires sur la tête. Elle a des raies noires sur les ailes. Les deux sexes sont très semblables.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve dans les régions désertiques du continent australien. Elles vivent dans les régions caillouteuses avec très peu de bois et de spinifex.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux granivores, dépendants des trous d'eau qui s'éparpillent en saison des pluies autour des différentes mares et cours d'eau, se regroupant en saison sèche autour des sources permanentes.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des animaux nomades qui vivent sur le sol en couples ou en petits groupes
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colombine_plumif%C3%A8re</t>
+          <t>Colombine_plumifère</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce niche au printemps ou en été, ou après les pluies. La femelle pond deux œufs blancs dans une fourche d'un buisson.
 </t>
